--- a/erupt_reyk_P.xlsx
+++ b/erupt_reyk_P.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/jcm1004_cam_ac_uk/Documents/gmt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4F907871-6B99-6948-870E-43359FF0DA48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:40009_{98DBE47B-5421-F441-B33B-6C7F66B4F85E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FE92169A-AD8D-6D43-ACDA-738BDB04B7A5}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="4540" windowWidth="21780" windowHeight="16000"/>
+    <workbookView xWindow="8240" yWindow="8140" windowWidth="21780" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prin_supp2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1344,14 +1344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3326,10 +3326,10 @@
         <v>0.1</v>
       </c>
       <c r="E43">
-        <v>-22.02</v>
+        <v>-22.172398000000001</v>
       </c>
       <c r="F43">
-        <v>63.95</v>
+        <v>63.941859999999998</v>
       </c>
       <c r="G43">
         <v>16300</v>
@@ -4360,10 +4360,10 @@
         <v>0.4</v>
       </c>
       <c r="E65">
-        <v>-22.15</v>
+        <v>-22.081249</v>
       </c>
       <c r="F65">
-        <v>63.978000000000002</v>
+        <v>63.959510999999999</v>
       </c>
       <c r="G65">
         <v>1950</v>
@@ -4460,10 +4460,10 @@
         <v>0.1</v>
       </c>
       <c r="E67">
-        <v>-21.83</v>
+        <v>-21.829736</v>
       </c>
       <c r="F67">
-        <v>63.93</v>
+        <v>63.924909</v>
       </c>
       <c r="G67">
         <v>1000</v>
@@ -4510,10 +4510,10 @@
         <v>0.04</v>
       </c>
       <c r="E68">
-        <v>-21.87</v>
+        <v>-21.749977999999999</v>
       </c>
       <c r="F68">
-        <v>64.013333329999995</v>
+        <v>63.974240000000002</v>
       </c>
       <c r="G68">
         <v>1000</v>
@@ -4560,10 +4560,10 @@
         <v>0.3</v>
       </c>
       <c r="E69">
-        <v>-21.686666670000001</v>
+        <v>-21.634848000000002</v>
       </c>
       <c r="F69">
-        <v>64.013333329999995</v>
+        <v>63.997917999999999</v>
       </c>
       <c r="G69">
         <v>900</v>
@@ -4610,10 +4610,10 @@
         <v>0.1</v>
       </c>
       <c r="E70">
-        <v>-21.485714290000001</v>
+        <v>-21.498213</v>
       </c>
       <c r="F70">
-        <v>64.042571429999995</v>
+        <v>64.023495999999994</v>
       </c>
       <c r="G70">
         <v>900</v>
@@ -4657,10 +4657,10 @@
         <v>0.3</v>
       </c>
       <c r="E71">
-        <v>-22.186666670000001</v>
+        <v>-22.077259999999999</v>
       </c>
       <c r="F71">
-        <v>63.85766667</v>
+        <v>63.917628999999998</v>
       </c>
       <c r="G71">
         <v>830</v>
@@ -4707,10 +4707,10 @@
         <v>0.1</v>
       </c>
       <c r="E72">
-        <v>-21.983333330000001</v>
+        <v>-21.957415000000001</v>
       </c>
       <c r="F72">
-        <v>64.027666670000002</v>
+        <v>63.975361999999997</v>
       </c>
       <c r="G72">
         <v>800</v>
@@ -4757,10 +4757,10 @@
         <v>0.1</v>
       </c>
       <c r="E73">
-        <v>-22.52</v>
+        <v>-22.047940000000001</v>
       </c>
       <c r="F73">
-        <v>63.97</v>
+        <v>63.959000000000003</v>
       </c>
       <c r="G73">
         <v>800</v>
@@ -4807,10 +4807,10 @@
         <v>0.48</v>
       </c>
       <c r="E74">
-        <v>-22.431538459999999</v>
+        <v>-22.402657999999999</v>
       </c>
       <c r="F74">
-        <v>63.897846149999999</v>
+        <v>63.902282999999997</v>
       </c>
       <c r="G74">
         <v>760</v>
@@ -4857,10 +4857,10 @@
         <v>0.01</v>
       </c>
       <c r="E75">
-        <v>-22.71</v>
+        <v>-22.683260000000001</v>
       </c>
       <c r="F75">
-        <v>63.83</v>
+        <v>63.844366000000001</v>
       </c>
       <c r="G75">
         <v>750</v>
